--- a/Vira32Parts.xlsx
+++ b/Vira32Parts.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="85">
   <si>
     <t>Part</t>
   </si>
@@ -85,9 +85,6 @@
     <t>DIS1</t>
   </si>
   <si>
-    <t>WG12864 / ST7920</t>
-  </si>
-  <si>
     <t>HDM64GS12_-R</t>
   </si>
   <si>
@@ -202,9 +199,6 @@
     <t>MS5611 Module</t>
   </si>
   <si>
-    <t>You can use WG12864 or ST7920 display module.</t>
-  </si>
-  <si>
     <t>Place if use WG12864 display</t>
   </si>
   <si>
@@ -220,52 +214,61 @@
     <t>Image</t>
   </si>
   <si>
-    <t>http://www.avislab.com/photo/Vira32/Components/MS5611.jpg</t>
-  </si>
-  <si>
-    <t>http://www.avislab.com/photo/Vira32/Components/1N4148W.jpg</t>
-  </si>
-  <si>
-    <t>http://www.avislab.com/photo/Vira32/Components/WG12864_front.jpg</t>
-  </si>
-  <si>
-    <t>http://www.avislab.com/photo/Vira32/Components/WG12864_back.jpg</t>
-  </si>
-  <si>
-    <t>http://www.avislab.com/photo/Vira32/Components/L0510.jpg</t>
-  </si>
-  <si>
-    <t>http://www.avislab.com/photo/Vira32/Components/CA6V.jpg</t>
-  </si>
-  <si>
-    <t>http://www.avislab.com/photo/Vira32/Components/SS12F23G4_front.jpg</t>
-  </si>
-  <si>
-    <t>http://www.avislab.com/photo/Vira32/Components/SS12F23G4_back.jpg</t>
-  </si>
-  <si>
-    <t>http://www.avislab.com/photo/Vira32/Components/DFPlayer Mini.jpg</t>
-  </si>
-  <si>
-    <t>http://www.avislab.com/photo/Vira32/Components/STM32F103C8T6.jpg</t>
-  </si>
-  <si>
-    <t>http://www.avislab.com/photo/Vira32/Components/HC-06.jpg</t>
-  </si>
-  <si>
-    <t>http://www.avislab.com/photo/Vira32/Components/DCDCConvertor.jpg</t>
-  </si>
-  <si>
-    <t>http://www.avislab.com/photo/Vira32/Components/TP4056.jpg</t>
-  </si>
-  <si>
-    <t>http://www.avislab.com/photo/Vira32/Components/PJ307.jpg</t>
-  </si>
-  <si>
-    <t>http://www.avislab.com/photo/Vira32/Components/IRLML6402.jpg</t>
-  </si>
-  <si>
-    <t>http://www.avislab.com/photo/Vira32/Components/IRLML2402.jpg</t>
+    <t>WG12864A / ST7920</t>
+  </si>
+  <si>
+    <t>You can use WG12864A or ST7920 display module.</t>
+  </si>
+  <si>
+    <t>Place if use WG12864A display</t>
+  </si>
+  <si>
+    <t>http://www.avislab.com/Vira32/Components/1N4148W.jpg</t>
+  </si>
+  <si>
+    <t>http://www.avislab.com/Vira32/Components/WG12864_front.jpg</t>
+  </si>
+  <si>
+    <t>http://www.avislab.com/Vira32/Components/WG12864_back.jpg</t>
+  </si>
+  <si>
+    <t>http://www.avislab.com/Vira32/Components/L0510.jpg</t>
+  </si>
+  <si>
+    <t>http://www.avislab.com/Vira32/Components/CA6V.jpg</t>
+  </si>
+  <si>
+    <t>http://www.avislab.com/Vira32/Components/SS12F23G4_front.jpg</t>
+  </si>
+  <si>
+    <t>http://www.avislab.com/Vira32/Components/SS12F23G4_back.jpg</t>
+  </si>
+  <si>
+    <t>http://www.avislab.com/Vira32/Components/MS5611.jpg</t>
+  </si>
+  <si>
+    <t>http://www.avislab.com/Vira32/Components/DFPlayer Mini.jpg</t>
+  </si>
+  <si>
+    <t>http://www.avislab.com/Vira32/Components/STM32F103C8T6.jpg</t>
+  </si>
+  <si>
+    <t>http://www.avislab.com/Vira32/Components/HC-06.jpg</t>
+  </si>
+  <si>
+    <t>http://www.avislab.com/Vira32/Components/DCDCConvertor.jpg</t>
+  </si>
+  <si>
+    <t>http://www.avislab.com/Vira32/Components/TP4056.jpg</t>
+  </si>
+  <si>
+    <t>http://www.avislab.com/Vira32/Components/PJ307.jpg</t>
+  </si>
+  <si>
+    <t>http://www.avislab.com/Vira32/Components/IRLML2402.jpg</t>
+  </si>
+  <si>
+    <t>http://www.avislab.com/Vira32/Components/IRLML6402.jpg</t>
   </si>
 </sst>
 </file>
@@ -1125,9 +1128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1152,7 +1153,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1268,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>70</v>
@@ -1285,13 +1286,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>72</v>
@@ -1299,30 +1300,30 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
         <v>30</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>31</v>
       </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>73</v>
@@ -1330,129 +1331,129 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1">
         <v>220</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="1">
         <v>100</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
         <v>44</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>45</v>
-      </c>
-      <c r="C25" t="s">
-        <v>46</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>74</v>
@@ -1463,90 +1464,90 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
         <v>55</v>
       </c>
-      <c r="B28" t="s">
-        <v>56</v>
-      </c>
       <c r="E28" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" t="s">
         <v>48</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>49</v>
-      </c>
-      <c r="C33" t="s">
-        <v>50</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>83</v>
@@ -1554,13 +1555,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" t="s">
         <v>49</v>
-      </c>
-      <c r="C34" t="s">
-        <v>50</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>83</v>
@@ -1568,30 +1569,30 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s">
         <v>52</v>
       </c>
-      <c r="B35" t="s">
-        <v>53</v>
-      </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
